--- a/AEAT/out/madrid/final/madrid_data.xlsx
+++ b/AEAT/out/madrid/final/madrid_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">wave</t>
   </si>
   <si>
-    <t xml:space="preserve">NÂº propiedades alquiladas</t>
+    <t xml:space="preserve">Nº propiedades alquiladas</t>
   </si>
   <si>
     <t xml:space="preserve">% total de hogares</t>
@@ -69,16 +69,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5+</t>
+    <t xml:space="preserve">2+</t>
   </si>
   <si>
     <t xml:space="preserve">no_caseros</t>
@@ -733,19 +724,19 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>0.057</v>
+        <v>0.061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.256</v>
+        <v>0.289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.297</v>
+        <v>0.332</v>
       </c>
       <c r="E2" t="n">
-        <v>6501.269</v>
+        <v>6569.261</v>
       </c>
       <c r="F2" t="n">
-        <v>6501.269</v>
+        <v>6569.261</v>
       </c>
       <c r="G2" t="n">
         <v>2016</v>
@@ -756,19 +747,19 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>0.033</v>
+        <v>0.051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.294</v>
+        <v>0.711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.281</v>
+        <v>0.668</v>
       </c>
       <c r="E3" t="n">
-        <v>10704.932</v>
+        <v>15770.15</v>
       </c>
       <c r="F3" t="n">
-        <v>5352.466</v>
+        <v>5440.51</v>
       </c>
       <c r="G3" t="n">
         <v>2016</v>
@@ -779,19 +770,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006</v>
+        <v>0.889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18475.978</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6158.659</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2016</v>
@@ -799,56 +790,56 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007</v>
+        <v>0.07</v>
       </c>
       <c r="C5" t="n">
-        <v>0.135</v>
+        <v>0.288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.115</v>
+        <v>0.332</v>
       </c>
       <c r="E5" t="n">
-        <v>19166.718</v>
+        <v>7588.475</v>
       </c>
       <c r="F5" t="n">
-        <v>4791.68</v>
+        <v>7588.475</v>
       </c>
       <c r="G5" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007</v>
+        <v>0.06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234</v>
+        <v>0.712</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217</v>
+        <v>0.668</v>
       </c>
       <c r="E6" t="n">
-        <v>39944.071</v>
+        <v>17955.65</v>
       </c>
       <c r="F6" t="n">
-        <v>5312.618</v>
+        <v>6138.964</v>
       </c>
       <c r="G6" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -863,144 +854,6 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7490.104</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7490.104</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11376.897</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5688.448</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="E10" t="n">
-        <v>21415.723</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7138.574</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>21599.763</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5399.941</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="E12" t="n">
-        <v>43341.568</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5877.551</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -1020,19 +873,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1040,7 +893,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
         <v>77701.1298886781</v>
@@ -1060,7 +913,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
         <v>20606.0583246848</v>
@@ -1080,7 +933,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
         <v>41983.3486601406</v>
@@ -1100,7 +953,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>86479.7575956333</v>
@@ -1120,7 +973,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>24891.0836940362</v>
@@ -1140,7 +993,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>45963.9904747245</v>
@@ -1174,16 +1027,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -1191,7 +1044,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
         <v>0.0323572671944164</v>
@@ -1208,7 +1061,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
         <v>0.120670037311735</v>
@@ -1225,7 +1078,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
         <v>0.257996768724804</v>
@@ -1242,7 +1095,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
         <v>0.588975926769044</v>
@@ -1259,7 +1112,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
         <v>0.0383081072068598</v>
@@ -1276,7 +1129,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>0.116981903695885</v>
@@ -1293,7 +1146,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>0.25023120383304</v>
@@ -1310,7 +1163,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>0.594478785264215</v>
@@ -1341,16 +1194,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -1358,13 +1211,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
         <v>139578.937401893</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
         <v>0.111265944190082</v>
@@ -1375,13 +1228,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
         <v>365742.936531352</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>0.291553538961545</v>
@@ -1392,13 +1245,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
         <v>749140.472276149</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>0.597180516848373</v>
@@ -1409,13 +1262,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>168518.37731612</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>0.129525085354449</v>
@@ -1426,13 +1279,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>403851.899012734</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
         <v>0.310405028361124</v>
@@ -1443,13 +1296,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>728677.909472102</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.560069886284427</v>
